--- a/2022/Price List/Realme Price List 01.04.2022.xlsx
+++ b/2022/Price List/Realme Price List 01.04.2022.xlsx
@@ -244,7 +244,7 @@
     <t xml:space="preserve"> GT NEO 2 (8+128 GB)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Last Update 24-04-2021)</t>
+    <t xml:space="preserve"> (Last Update 06-05-2021)</t>
   </si>
 </sst>
 </file>
@@ -3489,7 +3489,7 @@
   <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
